--- a/results/I3_N5_M2_T45_C200_DepLowerLeft_s2_P1_res.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepLowerLeft_s2_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.4314380881751</v>
+        <v>1293.2075362032</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0150001049041748</v>
+        <v>0.006000041961669922</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.59143808817635</v>
+        <v>27.21363927694955</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.651966017345897</v>
+        <v>6.125424931602671</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.651966017345897</v>
+        <v>6.119321857853205</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>44.83999999999877</v>
+        <v>798</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,12 +617,23 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -667,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -678,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -689,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -722,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -780,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -791,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -824,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -835,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -896,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31.95858503259002</v>
+        <v>15.66483080554376</v>
       </c>
     </row>
     <row r="4">
@@ -904,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31.29375422704313</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -912,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>41.86770052517324</v>
       </c>
     </row>
     <row r="6">
@@ -920,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.99312545677591</v>
+        <v>38.80648056830877</v>
       </c>
     </row>
     <row r="7">
@@ -928,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>10.32314874444808</v>
       </c>
     </row>
     <row r="8">
@@ -936,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>44.0235425542724</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -944,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>39.11244731462912</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -958,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -990,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1004,13 +1015,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1018,13 +1029,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1032,15 +1043,99 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1143,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>207.155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8">
@@ -1154,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9">
@@ -1165,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>202.5049999999998</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10">
@@ -1176,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>202.1699999999999</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11">
@@ -1187,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>210.5899999999997</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
@@ -1198,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>163.5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
@@ -1209,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>159.9650000000007</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
@@ -1220,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>161.2099999999999</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
@@ -1231,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>162.6600000000001</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16">
@@ -1242,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>166.7199999999999</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
@@ -1253,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>41.16999999999935</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18">
@@ -1264,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>46.71499999999935</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19">
@@ -1275,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>37.85999999999935</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20">
@@ -1286,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>47.65</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21">
@@ -1297,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>45.31999999999935</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22">
@@ -1308,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>147.3399999999997</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23">
@@ -1319,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>159.2049999999997</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24">
@@ -1330,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>140.4299999999997</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25">
@@ -1341,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>157.7</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26">
@@ -1352,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>152.9949999999997</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27">
@@ -1363,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>52.23499999999957</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -1374,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>44.35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
@@ -1385,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>44.52499999999936</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -1396,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>45.78499999999946</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -1407,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>50.8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
@@ -1418,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>207.155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1429,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1440,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>202.5049999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1451,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>202.1699999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1462,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>210.5899999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1473,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>147.3399999999997</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38">
@@ -1484,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>159.2049999999997</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39">
@@ -1495,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>140.4299999999997</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40">
@@ -1506,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>157.7</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41">
@@ -1517,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>152.9949999999997</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -1564,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>7.155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1586,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2.504999999999782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1597,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>2.169999999999891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1608,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>10.58999999999971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1619,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -1630,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -1641,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -1652,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -1663,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1710,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1721,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1732,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1743,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1754,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1765,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1776,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1787,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1798,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1809,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1930,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -1941,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -1952,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -1963,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -1974,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1988,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2015,7 +2110,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2026,10 +2121,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2037,10 +2132,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2048,12 +2143,78 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
